--- a/reviews.xlsx
+++ b/reviews.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="994">
   <si>
     <t>Review</t>
   </si>
@@ -1289,9 +1289,6 @@
   </si>
   <si>
     <t>What a mistake that was!</t>
-  </si>
-  <si>
-    <t>No complaints!</t>
   </si>
   <si>
     <t>This is some seriously good pizza and I'm an expert/connisseur on the topic.</t>
@@ -3827,10 +3824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B999"/>
+  <dimension ref="A1:B998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A413" workbookViewId="0">
+      <selection activeCell="A425" sqref="A425:XFD425"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7243,7 +7240,7 @@
         <v>426</v>
       </c>
       <c r="B426">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7256,7 @@
         <v>428</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
@@ -7267,7 +7264,7 @@
         <v>429</v>
       </c>
       <c r="B429">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
@@ -7275,7 +7272,7 @@
         <v>430</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.25">
@@ -7291,7 +7288,7 @@
         <v>432</v>
       </c>
       <c r="B432">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.25">
@@ -7299,7 +7296,7 @@
         <v>433</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.25">
@@ -7307,7 +7304,7 @@
         <v>434</v>
       </c>
       <c r="B434">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.25">
@@ -7315,7 +7312,7 @@
         <v>435</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.25">
@@ -7347,7 +7344,7 @@
         <v>439</v>
       </c>
       <c r="B439">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.25">
@@ -7355,7 +7352,7 @@
         <v>440</v>
       </c>
       <c r="B440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.25">
@@ -7371,7 +7368,7 @@
         <v>442</v>
       </c>
       <c r="B442">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.25">
@@ -7379,7 +7376,7 @@
         <v>443</v>
       </c>
       <c r="B443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.25">
@@ -7395,7 +7392,7 @@
         <v>445</v>
       </c>
       <c r="B445">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.25">
@@ -7411,7 +7408,7 @@
         <v>447</v>
       </c>
       <c r="B447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.25">
@@ -7427,7 +7424,7 @@
         <v>449</v>
       </c>
       <c r="B449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.25">
@@ -7435,7 +7432,7 @@
         <v>450</v>
       </c>
       <c r="B450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.25">
@@ -7443,7 +7440,7 @@
         <v>451</v>
       </c>
       <c r="B451">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.25">
@@ -7475,7 +7472,7 @@
         <v>455</v>
       </c>
       <c r="B455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.25">
@@ -7507,7 +7504,7 @@
         <v>459</v>
       </c>
       <c r="B459">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.25">
@@ -7515,7 +7512,7 @@
         <v>460</v>
       </c>
       <c r="B460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.25">
@@ -7531,7 +7528,7 @@
         <v>462</v>
       </c>
       <c r="B462">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.25">
@@ -7539,7 +7536,7 @@
         <v>463</v>
       </c>
       <c r="B463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.25">
@@ -7555,7 +7552,7 @@
         <v>465</v>
       </c>
       <c r="B465">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.25">
@@ -7571,7 +7568,7 @@
         <v>467</v>
       </c>
       <c r="B467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.25">
@@ -7595,7 +7592,7 @@
         <v>470</v>
       </c>
       <c r="B470">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.25">
@@ -7603,7 +7600,7 @@
         <v>471</v>
       </c>
       <c r="B471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.25">
@@ -7611,7 +7608,7 @@
         <v>472</v>
       </c>
       <c r="B472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.25">
@@ -7635,7 +7632,7 @@
         <v>475</v>
       </c>
       <c r="B475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.25">
@@ -7667,7 +7664,7 @@
         <v>479</v>
       </c>
       <c r="B479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.25">
@@ -7675,7 +7672,7 @@
         <v>480</v>
       </c>
       <c r="B480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.25">
@@ -7683,7 +7680,7 @@
         <v>481</v>
       </c>
       <c r="B481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.25">
@@ -7699,7 +7696,7 @@
         <v>483</v>
       </c>
       <c r="B483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.25">
@@ -7723,7 +7720,7 @@
         <v>486</v>
       </c>
       <c r="B486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.25">
@@ -7739,7 +7736,7 @@
         <v>488</v>
       </c>
       <c r="B488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.25">
@@ -7763,7 +7760,7 @@
         <v>491</v>
       </c>
       <c r="B491">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.25">
@@ -7771,7 +7768,7 @@
         <v>492</v>
       </c>
       <c r="B492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.25">
@@ -7787,7 +7784,7 @@
         <v>494</v>
       </c>
       <c r="B494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.25">
@@ -7795,7 +7792,7 @@
         <v>495</v>
       </c>
       <c r="B495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.25">
@@ -7835,7 +7832,7 @@
         <v>500</v>
       </c>
       <c r="B500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.25">
@@ -7843,7 +7840,7 @@
         <v>501</v>
       </c>
       <c r="B501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.25">
@@ -7867,7 +7864,7 @@
         <v>504</v>
       </c>
       <c r="B504">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.25">
@@ -7907,7 +7904,7 @@
         <v>509</v>
       </c>
       <c r="B509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.25">
@@ -7955,7 +7952,7 @@
         <v>515</v>
       </c>
       <c r="B515">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.25">
@@ -7963,7 +7960,7 @@
         <v>516</v>
       </c>
       <c r="B516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.25">
@@ -7971,7 +7968,7 @@
         <v>517</v>
       </c>
       <c r="B517">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.25">
@@ -7979,7 +7976,7 @@
         <v>518</v>
       </c>
       <c r="B518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.25">
@@ -8003,7 +8000,7 @@
         <v>521</v>
       </c>
       <c r="B521">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.25">
@@ -8019,7 +8016,7 @@
         <v>523</v>
       </c>
       <c r="B523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.25">
@@ -8027,7 +8024,7 @@
         <v>524</v>
       </c>
       <c r="B524">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.25">
@@ -8043,7 +8040,7 @@
         <v>526</v>
       </c>
       <c r="B526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.25">
@@ -8099,7 +8096,7 @@
         <v>533</v>
       </c>
       <c r="B533">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.25">
@@ -8107,7 +8104,7 @@
         <v>534</v>
       </c>
       <c r="B534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.25">
@@ -8115,7 +8112,7 @@
         <v>535</v>
       </c>
       <c r="B535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.25">
@@ -8123,7 +8120,7 @@
         <v>536</v>
       </c>
       <c r="B536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.25">
@@ -8131,7 +8128,7 @@
         <v>537</v>
       </c>
       <c r="B537">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.25">
@@ -8139,7 +8136,7 @@
         <v>538</v>
       </c>
       <c r="B538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.25">
@@ -8155,7 +8152,7 @@
         <v>540</v>
       </c>
       <c r="B540">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.25">
@@ -8163,7 +8160,7 @@
         <v>541</v>
       </c>
       <c r="B541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.25">
@@ -8171,7 +8168,7 @@
         <v>542</v>
       </c>
       <c r="B542">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.25">
@@ -8187,7 +8184,7 @@
         <v>544</v>
       </c>
       <c r="B544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.25">
@@ -8203,7 +8200,7 @@
         <v>546</v>
       </c>
       <c r="B546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:2" x14ac:dyDescent="0.25">
@@ -8219,7 +8216,7 @@
         <v>548</v>
       </c>
       <c r="B548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:2" x14ac:dyDescent="0.25">
@@ -8251,7 +8248,7 @@
         <v>552</v>
       </c>
       <c r="B552">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:2" x14ac:dyDescent="0.25">
@@ -8291,7 +8288,7 @@
         <v>557</v>
       </c>
       <c r="B557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:2" x14ac:dyDescent="0.25">
@@ -8307,7 +8304,7 @@
         <v>559</v>
       </c>
       <c r="B559">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:2" x14ac:dyDescent="0.25">
@@ -8323,7 +8320,7 @@
         <v>561</v>
       </c>
       <c r="B561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:2" x14ac:dyDescent="0.25">
@@ -8347,7 +8344,7 @@
         <v>564</v>
       </c>
       <c r="B564">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:2" x14ac:dyDescent="0.25">
@@ -8363,7 +8360,7 @@
         <v>566</v>
       </c>
       <c r="B566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:2" x14ac:dyDescent="0.25">
@@ -8371,7 +8368,7 @@
         <v>567</v>
       </c>
       <c r="B567">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:2" x14ac:dyDescent="0.25">
@@ -8411,7 +8408,7 @@
         <v>572</v>
       </c>
       <c r="B572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:2" x14ac:dyDescent="0.25">
@@ -8427,7 +8424,7 @@
         <v>574</v>
       </c>
       <c r="B574">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:2" x14ac:dyDescent="0.25">
@@ -8443,7 +8440,7 @@
         <v>576</v>
       </c>
       <c r="B576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:2" x14ac:dyDescent="0.25">
@@ -8467,7 +8464,7 @@
         <v>579</v>
       </c>
       <c r="B579">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:2" x14ac:dyDescent="0.25">
@@ -8491,7 +8488,7 @@
         <v>582</v>
       </c>
       <c r="B582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:2" x14ac:dyDescent="0.25">
@@ -8499,7 +8496,7 @@
         <v>583</v>
       </c>
       <c r="B583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:2" x14ac:dyDescent="0.25">
@@ -8507,7 +8504,7 @@
         <v>584</v>
       </c>
       <c r="B584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:2" x14ac:dyDescent="0.25">
@@ -8523,7 +8520,7 @@
         <v>586</v>
       </c>
       <c r="B586">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="587" spans="1:2" x14ac:dyDescent="0.25">
@@ -8531,7 +8528,7 @@
         <v>587</v>
       </c>
       <c r="B587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:2" x14ac:dyDescent="0.25">
@@ -8539,7 +8536,7 @@
         <v>588</v>
       </c>
       <c r="B588">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="589" spans="1:2" x14ac:dyDescent="0.25">
@@ -8547,7 +8544,7 @@
         <v>589</v>
       </c>
       <c r="B589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:2" x14ac:dyDescent="0.25">
@@ -8571,7 +8568,7 @@
         <v>592</v>
       </c>
       <c r="B592">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:2" x14ac:dyDescent="0.25">
@@ -8587,7 +8584,7 @@
         <v>594</v>
       </c>
       <c r="B594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:2" x14ac:dyDescent="0.25">
@@ -8595,7 +8592,7 @@
         <v>595</v>
       </c>
       <c r="B595">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:2" x14ac:dyDescent="0.25">
@@ -8603,7 +8600,7 @@
         <v>596</v>
       </c>
       <c r="B596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:2" x14ac:dyDescent="0.25">
@@ -8619,7 +8616,7 @@
         <v>598</v>
       </c>
       <c r="B598">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599" spans="1:2" x14ac:dyDescent="0.25">
@@ -8627,7 +8624,7 @@
         <v>599</v>
       </c>
       <c r="B599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:2" x14ac:dyDescent="0.25">
@@ -8635,7 +8632,7 @@
         <v>600</v>
       </c>
       <c r="B600">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601" spans="1:2" x14ac:dyDescent="0.25">
@@ -8643,7 +8640,7 @@
         <v>601</v>
       </c>
       <c r="B601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:2" x14ac:dyDescent="0.25">
@@ -8683,7 +8680,7 @@
         <v>606</v>
       </c>
       <c r="B606">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607" spans="1:2" x14ac:dyDescent="0.25">
@@ -8691,7 +8688,7 @@
         <v>607</v>
       </c>
       <c r="B607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:2" x14ac:dyDescent="0.25">
@@ -8699,7 +8696,7 @@
         <v>608</v>
       </c>
       <c r="B608">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609" spans="1:2" x14ac:dyDescent="0.25">
@@ -8739,7 +8736,7 @@
         <v>613</v>
       </c>
       <c r="B613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:2" x14ac:dyDescent="0.25">
@@ -8755,7 +8752,7 @@
         <v>615</v>
       </c>
       <c r="B615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:2" x14ac:dyDescent="0.25">
@@ -8771,7 +8768,7 @@
         <v>617</v>
       </c>
       <c r="B617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:2" x14ac:dyDescent="0.25">
@@ -8779,7 +8776,7 @@
         <v>618</v>
       </c>
       <c r="B618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:2" x14ac:dyDescent="0.25">
@@ -8803,7 +8800,7 @@
         <v>621</v>
       </c>
       <c r="B621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:2" x14ac:dyDescent="0.25">
@@ -8811,7 +8808,7 @@
         <v>622</v>
       </c>
       <c r="B622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:2" x14ac:dyDescent="0.25">
@@ -8819,7 +8816,7 @@
         <v>623</v>
       </c>
       <c r="B623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:2" x14ac:dyDescent="0.25">
@@ -8835,7 +8832,7 @@
         <v>625</v>
       </c>
       <c r="B625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:2" x14ac:dyDescent="0.25">
@@ -8859,7 +8856,7 @@
         <v>628</v>
       </c>
       <c r="B628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:2" x14ac:dyDescent="0.25">
@@ -8883,7 +8880,7 @@
         <v>631</v>
       </c>
       <c r="B631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:2" x14ac:dyDescent="0.25">
@@ -8891,7 +8888,7 @@
         <v>632</v>
       </c>
       <c r="B632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:2" x14ac:dyDescent="0.25">
@@ -8899,7 +8896,7 @@
         <v>633</v>
       </c>
       <c r="B633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:2" x14ac:dyDescent="0.25">
@@ -8907,7 +8904,7 @@
         <v>634</v>
       </c>
       <c r="B634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:2" x14ac:dyDescent="0.25">
@@ -8915,7 +8912,7 @@
         <v>635</v>
       </c>
       <c r="B635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:2" x14ac:dyDescent="0.25">
@@ -8923,7 +8920,7 @@
         <v>636</v>
       </c>
       <c r="B636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:2" x14ac:dyDescent="0.25">
@@ -8931,7 +8928,7 @@
         <v>637</v>
       </c>
       <c r="B637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:2" x14ac:dyDescent="0.25">
@@ -8939,7 +8936,7 @@
         <v>638</v>
       </c>
       <c r="B638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:2" x14ac:dyDescent="0.25">
@@ -8955,7 +8952,7 @@
         <v>640</v>
       </c>
       <c r="B640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:2" x14ac:dyDescent="0.25">
@@ -8963,7 +8960,7 @@
         <v>641</v>
       </c>
       <c r="B641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:2" x14ac:dyDescent="0.25">
@@ -8971,7 +8968,7 @@
         <v>642</v>
       </c>
       <c r="B642">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="643" spans="1:2" x14ac:dyDescent="0.25">
@@ -9011,7 +9008,7 @@
         <v>647</v>
       </c>
       <c r="B647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:2" x14ac:dyDescent="0.25">
@@ -9019,7 +9016,7 @@
         <v>648</v>
       </c>
       <c r="B648">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="649" spans="1:2" x14ac:dyDescent="0.25">
@@ -9035,7 +9032,7 @@
         <v>650</v>
       </c>
       <c r="B650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:2" x14ac:dyDescent="0.25">
@@ -9051,7 +9048,7 @@
         <v>652</v>
       </c>
       <c r="B652">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653" spans="1:2" x14ac:dyDescent="0.25">
@@ -9059,7 +9056,7 @@
         <v>653</v>
       </c>
       <c r="B653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:2" x14ac:dyDescent="0.25">
@@ -9067,7 +9064,7 @@
         <v>654</v>
       </c>
       <c r="B654">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="655" spans="1:2" x14ac:dyDescent="0.25">
@@ -9075,7 +9072,7 @@
         <v>655</v>
       </c>
       <c r="B655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:2" x14ac:dyDescent="0.25">
@@ -9179,7 +9176,7 @@
         <v>668</v>
       </c>
       <c r="B668">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669" spans="1:2" x14ac:dyDescent="0.25">
@@ -9195,7 +9192,7 @@
         <v>670</v>
       </c>
       <c r="B670">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="671" spans="1:2" x14ac:dyDescent="0.25">
@@ -9203,7 +9200,7 @@
         <v>671</v>
       </c>
       <c r="B671">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672" spans="1:2" x14ac:dyDescent="0.25">
@@ -9211,7 +9208,7 @@
         <v>672</v>
       </c>
       <c r="B672">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673" spans="1:2" x14ac:dyDescent="0.25">
@@ -9243,7 +9240,7 @@
         <v>676</v>
       </c>
       <c r="B676">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677" spans="1:2" x14ac:dyDescent="0.25">
@@ -9251,7 +9248,7 @@
         <v>677</v>
       </c>
       <c r="B677">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="678" spans="1:2" x14ac:dyDescent="0.25">
@@ -9259,7 +9256,7 @@
         <v>678</v>
       </c>
       <c r="B678">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:2" x14ac:dyDescent="0.25">
@@ -9267,7 +9264,7 @@
         <v>679</v>
       </c>
       <c r="B679">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="680" spans="1:2" x14ac:dyDescent="0.25">
@@ -9275,7 +9272,7 @@
         <v>680</v>
       </c>
       <c r="B680">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:2" x14ac:dyDescent="0.25">
@@ -9283,7 +9280,7 @@
         <v>681</v>
       </c>
       <c r="B681">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="682" spans="1:2" x14ac:dyDescent="0.25">
@@ -9307,7 +9304,7 @@
         <v>684</v>
       </c>
       <c r="B684">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:2" x14ac:dyDescent="0.25">
@@ -9315,7 +9312,7 @@
         <v>685</v>
       </c>
       <c r="B685">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="686" spans="1:2" x14ac:dyDescent="0.25">
@@ -9355,7 +9352,7 @@
         <v>690</v>
       </c>
       <c r="B690">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:2" x14ac:dyDescent="0.25">
@@ -9363,7 +9360,7 @@
         <v>691</v>
       </c>
       <c r="B691">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="692" spans="1:2" x14ac:dyDescent="0.25">
@@ -9387,7 +9384,7 @@
         <v>694</v>
       </c>
       <c r="B694">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695" spans="1:2" x14ac:dyDescent="0.25">
@@ -9443,7 +9440,7 @@
         <v>701</v>
       </c>
       <c r="B701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:2" x14ac:dyDescent="0.25">
@@ -9467,7 +9464,7 @@
         <v>704</v>
       </c>
       <c r="B704">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="705" spans="1:2" x14ac:dyDescent="0.25">
@@ -9475,7 +9472,7 @@
         <v>705</v>
       </c>
       <c r="B705">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="706" spans="1:2" x14ac:dyDescent="0.25">
@@ -9483,7 +9480,7 @@
         <v>706</v>
       </c>
       <c r="B706">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="707" spans="1:2" x14ac:dyDescent="0.25">
@@ -9491,7 +9488,7 @@
         <v>707</v>
       </c>
       <c r="B707">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="708" spans="1:2" x14ac:dyDescent="0.25">
@@ -9499,7 +9496,7 @@
         <v>708</v>
       </c>
       <c r="B708">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709" spans="1:2" x14ac:dyDescent="0.25">
@@ -9507,7 +9504,7 @@
         <v>709</v>
       </c>
       <c r="B709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:2" x14ac:dyDescent="0.25">
@@ -9515,7 +9512,7 @@
         <v>710</v>
       </c>
       <c r="B710">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711" spans="1:2" x14ac:dyDescent="0.25">
@@ -9523,7 +9520,7 @@
         <v>711</v>
       </c>
       <c r="B711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:2" x14ac:dyDescent="0.25">
@@ -9531,7 +9528,7 @@
         <v>712</v>
       </c>
       <c r="B712">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="713" spans="1:2" x14ac:dyDescent="0.25">
@@ -9539,7 +9536,7 @@
         <v>713</v>
       </c>
       <c r="B713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:2" x14ac:dyDescent="0.25">
@@ -9563,7 +9560,7 @@
         <v>716</v>
       </c>
       <c r="B716">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:2" x14ac:dyDescent="0.25">
@@ -9571,7 +9568,7 @@
         <v>717</v>
       </c>
       <c r="B717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:2" x14ac:dyDescent="0.25">
@@ -9579,7 +9576,7 @@
         <v>718</v>
       </c>
       <c r="B718">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:2" x14ac:dyDescent="0.25">
@@ -9587,7 +9584,7 @@
         <v>719</v>
       </c>
       <c r="B719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:2" x14ac:dyDescent="0.25">
@@ -9643,7 +9640,7 @@
         <v>726</v>
       </c>
       <c r="B726">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:2" x14ac:dyDescent="0.25">
@@ -9651,7 +9648,7 @@
         <v>727</v>
       </c>
       <c r="B727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:2" x14ac:dyDescent="0.25">
@@ -9667,7 +9664,7 @@
         <v>729</v>
       </c>
       <c r="B729">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:2" x14ac:dyDescent="0.25">
@@ -9683,7 +9680,7 @@
         <v>731</v>
       </c>
       <c r="B731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:2" x14ac:dyDescent="0.25">
@@ -9707,7 +9704,7 @@
         <v>734</v>
       </c>
       <c r="B734">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="735" spans="1:2" x14ac:dyDescent="0.25">
@@ -9723,7 +9720,7 @@
         <v>736</v>
       </c>
       <c r="B736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:2" x14ac:dyDescent="0.25">
@@ -9755,7 +9752,7 @@
         <v>740</v>
       </c>
       <c r="B740">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741" spans="1:2" x14ac:dyDescent="0.25">
@@ -9787,7 +9784,7 @@
         <v>744</v>
       </c>
       <c r="B744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:2" x14ac:dyDescent="0.25">
@@ -9811,7 +9808,7 @@
         <v>747</v>
       </c>
       <c r="B747">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748" spans="1:2" x14ac:dyDescent="0.25">
@@ -9819,7 +9816,7 @@
         <v>748</v>
       </c>
       <c r="B748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:2" x14ac:dyDescent="0.25">
@@ -9859,7 +9856,7 @@
         <v>753</v>
       </c>
       <c r="B753">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="754" spans="1:2" x14ac:dyDescent="0.25">
@@ -9867,7 +9864,7 @@
         <v>754</v>
       </c>
       <c r="B754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:2" x14ac:dyDescent="0.25">
@@ -9875,7 +9872,7 @@
         <v>755</v>
       </c>
       <c r="B755">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="756" spans="1:2" x14ac:dyDescent="0.25">
@@ -9883,7 +9880,7 @@
         <v>756</v>
       </c>
       <c r="B756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:2" x14ac:dyDescent="0.25">
@@ -9899,7 +9896,7 @@
         <v>758</v>
       </c>
       <c r="B758">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759" spans="1:2" x14ac:dyDescent="0.25">
@@ -9907,7 +9904,7 @@
         <v>759</v>
       </c>
       <c r="B759">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="760" spans="1:2" x14ac:dyDescent="0.25">
@@ -9915,7 +9912,7 @@
         <v>760</v>
       </c>
       <c r="B760">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="761" spans="1:2" x14ac:dyDescent="0.25">
@@ -9939,7 +9936,7 @@
         <v>763</v>
       </c>
       <c r="B763">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="764" spans="1:2" x14ac:dyDescent="0.25">
@@ -9947,7 +9944,7 @@
         <v>764</v>
       </c>
       <c r="B764">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="765" spans="1:2" x14ac:dyDescent="0.25">
@@ -9955,7 +9952,7 @@
         <v>765</v>
       </c>
       <c r="B765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:2" x14ac:dyDescent="0.25">
@@ -9987,7 +9984,7 @@
         <v>769</v>
       </c>
       <c r="B769">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770" spans="1:2" x14ac:dyDescent="0.25">
@@ -9995,7 +9992,7 @@
         <v>770</v>
       </c>
       <c r="B770">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="771" spans="1:2" x14ac:dyDescent="0.25">
@@ -10003,7 +10000,7 @@
         <v>771</v>
       </c>
       <c r="B771">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="772" spans="1:2" x14ac:dyDescent="0.25">
@@ -10019,7 +10016,7 @@
         <v>773</v>
       </c>
       <c r="B773">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="774" spans="1:2" x14ac:dyDescent="0.25">
@@ -10027,7 +10024,7 @@
         <v>774</v>
       </c>
       <c r="B774">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="775" spans="1:2" x14ac:dyDescent="0.25">
@@ -10035,7 +10032,7 @@
         <v>775</v>
       </c>
       <c r="B775">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="776" spans="1:2" x14ac:dyDescent="0.25">
@@ -10043,7 +10040,7 @@
         <v>776</v>
       </c>
       <c r="B776">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777" spans="1:2" x14ac:dyDescent="0.25">
@@ -10067,7 +10064,7 @@
         <v>779</v>
       </c>
       <c r="B779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:2" x14ac:dyDescent="0.25">
@@ -10091,7 +10088,7 @@
         <v>782</v>
       </c>
       <c r="B782">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="783" spans="1:2" x14ac:dyDescent="0.25">
@@ -10107,7 +10104,7 @@
         <v>784</v>
       </c>
       <c r="B784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:2" x14ac:dyDescent="0.25">
@@ -10115,7 +10112,7 @@
         <v>785</v>
       </c>
       <c r="B785">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="786" spans="1:2" x14ac:dyDescent="0.25">
@@ -10123,7 +10120,7 @@
         <v>786</v>
       </c>
       <c r="B786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:2" x14ac:dyDescent="0.25">
@@ -10155,7 +10152,7 @@
         <v>790</v>
       </c>
       <c r="B790">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="791" spans="1:2" x14ac:dyDescent="0.25">
@@ -10171,7 +10168,7 @@
         <v>792</v>
       </c>
       <c r="B792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:2" x14ac:dyDescent="0.25">
@@ -10179,7 +10176,7 @@
         <v>793</v>
       </c>
       <c r="B793">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794" spans="1:2" x14ac:dyDescent="0.25">
@@ -10187,7 +10184,7 @@
         <v>794</v>
       </c>
       <c r="B794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:2" x14ac:dyDescent="0.25">
@@ -10211,7 +10208,7 @@
         <v>797</v>
       </c>
       <c r="B797">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="798" spans="1:2" x14ac:dyDescent="0.25">
@@ -10219,7 +10216,7 @@
         <v>798</v>
       </c>
       <c r="B798">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="799" spans="1:2" x14ac:dyDescent="0.25">
@@ -10227,7 +10224,7 @@
         <v>799</v>
       </c>
       <c r="B799">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="800" spans="1:2" x14ac:dyDescent="0.25">
@@ -10235,7 +10232,7 @@
         <v>800</v>
       </c>
       <c r="B800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:2" x14ac:dyDescent="0.25">
@@ -10243,7 +10240,7 @@
         <v>801</v>
       </c>
       <c r="B801">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="802" spans="1:2" x14ac:dyDescent="0.25">
@@ -10251,7 +10248,7 @@
         <v>802</v>
       </c>
       <c r="B802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:2" x14ac:dyDescent="0.25">
@@ -10267,7 +10264,7 @@
         <v>804</v>
       </c>
       <c r="B804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:2" x14ac:dyDescent="0.25">
@@ -10275,7 +10272,7 @@
         <v>805</v>
       </c>
       <c r="B805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:2" x14ac:dyDescent="0.25">
@@ -10283,7 +10280,7 @@
         <v>806</v>
       </c>
       <c r="B806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:2" x14ac:dyDescent="0.25">
@@ -10291,7 +10288,7 @@
         <v>807</v>
       </c>
       <c r="B807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:2" x14ac:dyDescent="0.25">
@@ -10307,7 +10304,7 @@
         <v>809</v>
       </c>
       <c r="B809">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="810" spans="1:2" x14ac:dyDescent="0.25">
@@ -10336,15 +10333,15 @@
     </row>
     <row r="813" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
-        <v>813</v>
+        <v>334</v>
       </c>
       <c r="B813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
-        <v>334</v>
+        <v>813</v>
       </c>
       <c r="B814">
         <v>1</v>
@@ -10352,18 +10349,18 @@
     </row>
     <row r="815" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
-        <v>814</v>
+        <v>383</v>
       </c>
       <c r="B815">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="816" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
-        <v>383</v>
+        <v>814</v>
       </c>
       <c r="B816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:2" x14ac:dyDescent="0.25">
@@ -10371,7 +10368,7 @@
         <v>815</v>
       </c>
       <c r="B817">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="818" spans="1:2" x14ac:dyDescent="0.25">
@@ -10403,7 +10400,7 @@
         <v>819</v>
       </c>
       <c r="B821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:2" x14ac:dyDescent="0.25">
@@ -10419,7 +10416,7 @@
         <v>821</v>
       </c>
       <c r="B823">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="824" spans="1:2" x14ac:dyDescent="0.25">
@@ -10491,7 +10488,7 @@
         <v>830</v>
       </c>
       <c r="B832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:2" x14ac:dyDescent="0.25">
@@ -10507,7 +10504,7 @@
         <v>832</v>
       </c>
       <c r="B834">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:2" x14ac:dyDescent="0.25">
@@ -10515,7 +10512,7 @@
         <v>833</v>
       </c>
       <c r="B835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:2" x14ac:dyDescent="0.25">
@@ -10523,7 +10520,7 @@
         <v>834</v>
       </c>
       <c r="B836">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:2" x14ac:dyDescent="0.25">
@@ -10539,7 +10536,7 @@
         <v>836</v>
       </c>
       <c r="B838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:2" x14ac:dyDescent="0.25">
@@ -10547,7 +10544,7 @@
         <v>837</v>
       </c>
       <c r="B839">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:2" x14ac:dyDescent="0.25">
@@ -10555,7 +10552,7 @@
         <v>838</v>
       </c>
       <c r="B840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:2" x14ac:dyDescent="0.25">
@@ -10568,15 +10565,15 @@
     </row>
     <row r="842" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
-        <v>840</v>
+        <v>380</v>
       </c>
       <c r="B842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
-        <v>380</v>
+        <v>840</v>
       </c>
       <c r="B843">
         <v>0</v>
@@ -10592,7 +10589,7 @@
     </row>
     <row r="845" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
-        <v>842</v>
+        <v>504</v>
       </c>
       <c r="B845">
         <v>0</v>
@@ -10600,10 +10597,10 @@
     </row>
     <row r="846" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
-        <v>505</v>
+        <v>842</v>
       </c>
       <c r="B846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:2" x14ac:dyDescent="0.25">
@@ -10611,7 +10608,7 @@
         <v>843</v>
       </c>
       <c r="B847">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848" spans="1:2" x14ac:dyDescent="0.25">
@@ -10627,7 +10624,7 @@
         <v>845</v>
       </c>
       <c r="B849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:2" x14ac:dyDescent="0.25">
@@ -10635,7 +10632,7 @@
         <v>846</v>
       </c>
       <c r="B850">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851" spans="1:2" x14ac:dyDescent="0.25">
@@ -10643,7 +10640,7 @@
         <v>847</v>
       </c>
       <c r="B851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:2" x14ac:dyDescent="0.25">
@@ -10659,7 +10656,7 @@
         <v>849</v>
       </c>
       <c r="B853">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854" spans="1:2" x14ac:dyDescent="0.25">
@@ -10675,7 +10672,7 @@
         <v>851</v>
       </c>
       <c r="B855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:2" x14ac:dyDescent="0.25">
@@ -10691,7 +10688,7 @@
         <v>853</v>
       </c>
       <c r="B857">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:2" x14ac:dyDescent="0.25">
@@ -10707,7 +10704,7 @@
         <v>855</v>
       </c>
       <c r="B859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:2" x14ac:dyDescent="0.25">
@@ -10723,7 +10720,7 @@
         <v>857</v>
       </c>
       <c r="B861">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:2" x14ac:dyDescent="0.25">
@@ -10731,7 +10728,7 @@
         <v>858</v>
       </c>
       <c r="B862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:2" x14ac:dyDescent="0.25">
@@ -10779,7 +10776,7 @@
         <v>864</v>
       </c>
       <c r="B868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:2" x14ac:dyDescent="0.25">
@@ -10803,7 +10800,7 @@
         <v>867</v>
       </c>
       <c r="B871">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="872" spans="1:2" x14ac:dyDescent="0.25">
@@ -10819,7 +10816,7 @@
         <v>869</v>
       </c>
       <c r="B873">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="874" spans="1:2" x14ac:dyDescent="0.25">
@@ -10843,7 +10840,7 @@
         <v>872</v>
       </c>
       <c r="B876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:2" x14ac:dyDescent="0.25">
@@ -10859,7 +10856,7 @@
         <v>874</v>
       </c>
       <c r="B878">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:2" x14ac:dyDescent="0.25">
@@ -10883,7 +10880,7 @@
         <v>877</v>
       </c>
       <c r="B881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:2" x14ac:dyDescent="0.25">
@@ -10891,7 +10888,7 @@
         <v>878</v>
       </c>
       <c r="B882">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:2" x14ac:dyDescent="0.25">
@@ -10931,7 +10928,7 @@
         <v>883</v>
       </c>
       <c r="B887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:2" x14ac:dyDescent="0.25">
@@ -10939,7 +10936,7 @@
         <v>884</v>
       </c>
       <c r="B888">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889" spans="1:2" x14ac:dyDescent="0.25">
@@ -10947,7 +10944,7 @@
         <v>885</v>
       </c>
       <c r="B889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:2" x14ac:dyDescent="0.25">
@@ -10963,7 +10960,7 @@
         <v>887</v>
       </c>
       <c r="B891">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:2" x14ac:dyDescent="0.25">
@@ -10979,7 +10976,7 @@
         <v>889</v>
       </c>
       <c r="B893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:2" x14ac:dyDescent="0.25">
@@ -11011,7 +11008,7 @@
         <v>893</v>
       </c>
       <c r="B897">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="898" spans="1:2" x14ac:dyDescent="0.25">
@@ -11019,7 +11016,7 @@
         <v>894</v>
       </c>
       <c r="B898">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="899" spans="1:2" x14ac:dyDescent="0.25">
@@ -11027,7 +11024,7 @@
         <v>895</v>
       </c>
       <c r="B899">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="900" spans="1:2" x14ac:dyDescent="0.25">
@@ -11035,7 +11032,7 @@
         <v>896</v>
       </c>
       <c r="B900">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="901" spans="1:2" x14ac:dyDescent="0.25">
@@ -11043,7 +11040,7 @@
         <v>897</v>
       </c>
       <c r="B901">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="902" spans="1:2" x14ac:dyDescent="0.25">
@@ -11055,17 +11052,17 @@
       </c>
     </row>
     <row r="903" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A903" t="s">
-        <v>899</v>
-      </c>
-      <c r="B903">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A904" t="e">
+      <c r="A903" t="e">
         <f>-My order was not correct.</f>
         <v>#NAME?</v>
+      </c>
+      <c r="B903">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="904" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A904" t="s">
+        <v>899</v>
       </c>
       <c r="B904">
         <v>0</v>
@@ -11084,7 +11081,7 @@
         <v>901</v>
       </c>
       <c r="B906">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907" spans="1:2" x14ac:dyDescent="0.25">
@@ -11092,7 +11089,7 @@
         <v>902</v>
       </c>
       <c r="B907">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="908" spans="1:2" x14ac:dyDescent="0.25">
@@ -11100,7 +11097,7 @@
         <v>903</v>
       </c>
       <c r="B908">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="909" spans="1:2" x14ac:dyDescent="0.25">
@@ -11108,7 +11105,7 @@
         <v>904</v>
       </c>
       <c r="B909">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="910" spans="1:2" x14ac:dyDescent="0.25">
@@ -11204,7 +11201,7 @@
         <v>916</v>
       </c>
       <c r="B921">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="922" spans="1:2" x14ac:dyDescent="0.25">
@@ -11212,7 +11209,7 @@
         <v>917</v>
       </c>
       <c r="B922">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:2" x14ac:dyDescent="0.25">
@@ -11820,14 +11817,6 @@
         <v>993</v>
       </c>
       <c r="B998">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A999" t="s">
-        <v>994</v>
-      </c>
-      <c r="B999">
         <v>0</v>
       </c>
     </row>
